--- a/doc/技能表(1).xlsx
+++ b/doc/技能表(1).xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="89">
   <si>
     <t>技能类型</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -66,314 +66,310 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>夏侯惇</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>关羽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>张辽</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赵云</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>马超</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>紫色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>陆逊</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>曹操</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>诸葛亮</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>周瑜</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>司马懿</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>辅助</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>坦克</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>红色</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%概率造成双倍伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS技能1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS技能2</t>
+  </si>
+  <si>
+    <t>自动释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的所有伤害减少%25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体敌人减少60点防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击时30%概率触发，对一条直线上的所有敌人造成80%伤害.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击释放</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能一</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体每秒恢复2%生命值.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方全体敌人造成300点伤害，冷却时间5秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>随机对一个敌人造成每秒15%最大生命值，持续10秒.CD10秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>技能说明</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>全体成员脚下有个光环特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡之后，在英雄身边触发特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害概率触发时，在关羽身上触发特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>就那张图发行一条直线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，选择范围，然后再次点击出现特效。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，选择单体目标，特效在选中的单位出现。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>欠缺</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>没有特效</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BOSS自动释放.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>远程</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体单位增加100点防御力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>增加200射程，增加200攻击力.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为我方单位恢复2000点生命，并且减少20%受到伤害，持续3秒.冷却时间8秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体成员增加20%攻击力</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>死亡时，对附近范围敌方造成200%点伤害，并且减速70%，持续4秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>当血量低于30%时，免疫所有伤害，持续5秒，冷却时间10秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>近战攻击减少敌方敌人150点防御力，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击可以使敌人受到的伤害增加25%，持续3秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>血量低于70%时触发，每秒持续恢复800血，持续6秒.冷却时间15秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>被攻击时，可以恢复200点生命.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>40%概率对前面扇形内的所有敌人造成800点伤害.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体移动速度增加30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体成员拥有15%吸血光环</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到的所有伤害减少%25</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>将40%伤害转化为生命值</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>受到伤害时，20%概率触发乱舞，对附近范围所有敌人造成1000点伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，在对方的屏幕中间触发</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>点击之后，以曹操为中心触发圆圈。</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造一个防护罩，罩子内所有的英雄受到的伤害减少50%，持续5秒.冷却时间15秒</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对范围内所有敌人造成150%伤害，并且眩晕2秒.冷却时间12秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>我方全体受到的伤害减少15%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对敌方单体造成3000点伤害，冷却时间12秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>对前方扇形范围内的敌人造成200%伤害.CD8秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>控制敌方最近的英雄3秒，BOSS无效.冷却时间15秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>普通攻击造成燃烧效果，每秒造成200点伤害.持续3秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>敌方全体移速减少30%</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>移除我方所有英雄的所有不利魔法效果.CD10秒.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>孙尚香</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>夏侯惇</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>关羽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>张辽</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>赵云</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>马超</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>紫色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>陆逊</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>曹操</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>诸葛亮</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>周瑜</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>司马懿</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>辅助</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>坦克</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>橙色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>红色</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40%概率造成双倍伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS技能1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS技能2</t>
-  </si>
-  <si>
-    <t>自动释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被动</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的所有伤害减少%25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体敌人减少60点防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>攻击时30%概率触发，对一条直线上的所有敌人造成80%伤害.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击释放</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能一</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体每秒恢复2%生命值.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方全体敌人造成300点伤害，冷却时间5秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>移除我方所有英雄的所有不利魔法效果.CD10秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>血量低于20%时，伤害提高100%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>敌方全体每秒减少5%最大生命值.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>随机对一个敌人造成每秒15%最大生命值，持续10秒.CD10秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>技能说明</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>全体成员脚下有个光环特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡之后，在英雄身边触发特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害概率触发时，在关羽身上触发特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>就那张图发行一条直线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击之后，选择范围，然后再次点击出现特效。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击之后，选择单体目标，特效在选中的单位出现。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>欠缺</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没有特效</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>BOSS自动释放.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>远程</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体单位增加100点防御力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>增加200射程，增加200攻击力.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>为我方单位恢复2000点生命，并且减少20%受到伤害，持续3秒.冷却时间8秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体成员增加20%攻击力</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>死亡时，对附近范围敌方造成200%点伤害，并且减速70%，持续4秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>当血量低于30%时，免疫所有伤害，持续5秒，冷却时间10秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>近战攻击减少敌方敌人150点防御力，持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>没做</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击可以使敌人受到的伤害增加25%，持续3秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>血量低于70%时触发，每秒持续恢复800血，持续6秒.冷却时间15秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>被攻击时，可以恢复200点生命.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>40%概率对前面扇形内的所有敌人造成800点伤害.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体移动速度增加30%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体成员拥有15%吸血光环</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到的所有伤害减少%25</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>将40%伤害转化为生命值</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>受到伤害时，20%概率触发乱舞，对附近范围所有敌人造成1000点伤害</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击之后，在对方的屏幕中间触发</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>点击之后，以曹操为中心触发圆圈。</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>制造一个防护罩，罩子内所有的英雄受到的伤害减少50%，持续5秒.冷却时间15秒</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对范围内所有敌人造成150%伤害，并且眩晕2秒.冷却时间12秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>我方全体受到的伤害减少15%</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对敌方单体造成3000点伤害，冷却时间12秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>对前方扇形范围内的敌人造成200%伤害.CD8秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>控制敌方最近的英雄3秒，BOSS无效.冷却时间15秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>普通攻击造成燃烧效果，每秒造成200点伤害.持续3秒.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>敌方全体移速减少30%</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -754,7 +750,7 @@
   <dimension ref="A1:L18"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="G9" sqref="G9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -764,10 +760,10 @@
     <col min="4" max="4" width="10.625" customWidth="1"/>
     <col min="5" max="5" width="5.625" customWidth="1"/>
     <col min="6" max="6" width="39.875" style="6" customWidth="1"/>
-    <col min="7" max="7" width="10.625" customWidth="1"/>
-    <col min="8" max="8" width="27.875" customWidth="1"/>
+    <col min="7" max="7" width="7" customWidth="1"/>
+    <col min="8" max="8" width="64.75" customWidth="1"/>
     <col min="9" max="9" width="8.25" customWidth="1"/>
-    <col min="10" max="10" width="19.125" customWidth="1"/>
+    <col min="10" max="10" width="42" customWidth="1"/>
     <col min="11" max="11" width="13" customWidth="1"/>
     <col min="12" max="12" width="32.375" customWidth="1"/>
     <col min="13" max="13" width="57.625" customWidth="1"/>
@@ -787,10 +783,10 @@
         <v>1</v>
       </c>
       <c r="F1" s="6" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="H1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="J1" t="s">
         <v>9</v>
@@ -810,19 +806,19 @@
         <v>4</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F2" s="6" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="G2">
         <v>7</v>
       </c>
       <c r="H2" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
     </row>
     <row r="3" spans="1:12" ht="12.75" customHeight="1">
@@ -839,16 +835,16 @@
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F3" s="6" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:12" ht="12.75" customHeight="1">
@@ -859,28 +855,28 @@
         <v>8</v>
       </c>
       <c r="C4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="E4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F4" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G4">
         <v>17</v>
       </c>
       <c r="H4" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="I4">
         <v>19</v>
       </c>
       <c r="J4" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5" spans="1:12">
@@ -891,28 +887,28 @@
         <v>11</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F5" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G5">
         <v>18</v>
       </c>
       <c r="H5" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="I5">
         <v>8</v>
       </c>
       <c r="J5" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:12">
@@ -920,31 +916,31 @@
         <v>12</v>
       </c>
       <c r="B6" t="s">
-        <v>12</v>
+        <v>86</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E6" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F6" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G6" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G6">
+        <v>30</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>85</v>
       </c>
       <c r="I6">
         <v>20</v>
       </c>
       <c r="J6" t="s">
-        <v>71</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:12" ht="12.75" customHeight="1">
@@ -952,31 +948,31 @@
         <v>13</v>
       </c>
       <c r="B7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C7" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F7" s="6" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="G7">
         <v>16</v>
       </c>
       <c r="H7" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="I7">
         <v>8</v>
       </c>
       <c r="J7" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:12">
@@ -984,31 +980,31 @@
         <v>4</v>
       </c>
       <c r="B8" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="C8" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E8" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F8" s="6" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="G8">
         <v>9</v>
       </c>
       <c r="H8" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="I8">
         <v>21</v>
       </c>
       <c r="J8" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:12">
@@ -1016,31 +1012,31 @@
         <v>14</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C9" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E9" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F9" s="6" t="s">
-        <v>59</v>
-      </c>
-      <c r="G9" t="s">
-        <v>70</v>
+        <v>55</v>
+      </c>
+      <c r="G9">
+        <v>34</v>
       </c>
       <c r="H9" t="s">
-        <v>74</v>
+        <v>69</v>
       </c>
       <c r="I9">
         <v>8</v>
       </c>
       <c r="J9" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="10" spans="1:12" ht="12.75" customHeight="1">
@@ -1048,31 +1044,31 @@
         <v>5</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E10" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F10" s="6" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="G10">
         <v>10</v>
       </c>
       <c r="H10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="I10">
         <v>2</v>
       </c>
       <c r="J10" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:12" ht="13.5" customHeight="1">
@@ -1080,31 +1076,31 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F11" s="6" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="G11">
         <v>12</v>
       </c>
       <c r="H11" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="I11">
         <v>11</v>
       </c>
       <c r="J11" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="12" spans="1:12" ht="14.25" customHeight="1">
@@ -1112,31 +1108,31 @@
         <v>9</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C12" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D12" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F12" s="6" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="G12">
         <v>23</v>
       </c>
       <c r="H12" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I12">
         <v>22</v>
       </c>
       <c r="J12" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
     </row>
     <row r="13" spans="1:12">
@@ -1144,31 +1140,31 @@
         <v>1</v>
       </c>
       <c r="B13" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C13" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D13" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E13" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F13" s="6" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="G13">
         <v>24</v>
       </c>
       <c r="H13" t="s">
-        <v>82</v>
+        <v>77</v>
       </c>
       <c r="I13">
         <v>13</v>
       </c>
       <c r="J13" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="14" spans="1:12" ht="15" customHeight="1">
@@ -1176,37 +1172,37 @@
         <v>6</v>
       </c>
       <c r="B14" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C14" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D14" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F14" s="6" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="G14">
         <v>25</v>
       </c>
       <c r="H14" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="I14">
         <v>27</v>
       </c>
       <c r="J14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="K14">
         <v>26</v>
       </c>
       <c r="L14" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:12" ht="14.25" customHeight="1">
@@ -1214,37 +1210,37 @@
         <v>8</v>
       </c>
       <c r="B15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D15" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E15" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F15" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G15">
         <v>28</v>
       </c>
       <c r="H15" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="I15">
         <v>14</v>
       </c>
       <c r="J15" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="K15">
         <v>15</v>
       </c>
       <c r="L15" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:12">
@@ -1252,80 +1248,92 @@
         <v>7</v>
       </c>
       <c r="B16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="E16" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="F16" s="6" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="G16">
         <v>6</v>
       </c>
       <c r="H16" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="I16">
         <v>4</v>
       </c>
       <c r="J16" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="K16">
         <v>29</v>
       </c>
       <c r="L16" t="s">
-        <v>89</v>
+        <v>84</v>
       </c>
     </row>
     <row r="17" spans="2:10">
       <c r="B17" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>42</v>
+      </c>
+      <c r="G17">
+        <v>31</v>
       </c>
       <c r="H17" t="s">
-        <v>49</v>
+        <v>88</v>
+      </c>
+      <c r="I17">
+        <v>3</v>
       </c>
       <c r="J17" t="s">
-        <v>48</v>
+        <v>87</v>
       </c>
     </row>
     <row r="18" spans="2:10">
       <c r="B18" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="C18" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>6</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>61</v>
+        <v>57</v>
+      </c>
+      <c r="G18">
+        <v>33</v>
       </c>
       <c r="H18" t="s">
-        <v>86</v>
+        <v>81</v>
+      </c>
+      <c r="I18">
+        <v>32</v>
       </c>
       <c r="J18" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
   </sheetData>
